--- a/Excel/Sample.xlsx
+++ b/Excel/Sample.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766A019-D4EF-4D7C-BCC4-A9B14A2F664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3792923-6B14-46AD-BC8D-E6686161B000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0810452C-9FFD-4B22-AA5E-32A4DA9D959D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{0810452C-9FFD-4B22-AA5E-32A4DA9D959D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Figures" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
-  <si>
-    <t>City</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>State</t>
   </si>
@@ -207,11 +204,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ [$JPY]\ * #,##0.00_ ;_ [$JPY]\ * \-#,##0.00_ ;_ [$JPY]\ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$¥-411]* #,##0.00_-;\-[$¥-411]* #,##0.00_-;_-[$¥-411]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,20 +231,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,26 +263,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,40 +595,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B113F36-E1CD-49EA-93F9-DD60CDD9FDB1}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -642,630 +636,560 @@
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="7">
         <v>125319</v>
       </c>
-      <c r="F2" s="7">
+      <c r="E2" s="9">
         <v>65792</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="9">
         <v>4667</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="7">
         <v>433924</v>
       </c>
-      <c r="F3" s="7">
+      <c r="E3" s="9">
         <v>101465</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="9">
         <v>5068</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="7">
         <v>135816</v>
       </c>
-      <c r="F4" s="7">
+      <c r="E4" s="9">
         <v>67388</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="9">
         <v>5700</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="7">
         <v>233255</v>
       </c>
-      <c r="F5" s="7">
+      <c r="E5" s="9">
         <v>83606</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="9">
         <v>5089</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>392518</v>
+      </c>
+      <c r="E6" s="9">
+        <v>82675</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6100</v>
+      </c>
+      <c r="N6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>392518</v>
-      </c>
-      <c r="F6" s="7">
-        <v>82675</v>
-      </c>
-      <c r="H6">
-        <v>6100</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="7">
         <v>331773</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E7" s="9">
         <v>85288</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="9">
         <v>5795</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
         <v>244975</v>
       </c>
-      <c r="F8" s="7">
+      <c r="E8" s="9">
         <v>100834</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="9">
         <v>5153</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>207163</v>
+      </c>
+      <c r="E9" s="9">
+        <v>73705</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>207163</v>
-      </c>
-      <c r="F9" s="7">
-        <v>73705</v>
-      </c>
-      <c r="H9">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" s="7">
+        <v>432326</v>
+      </c>
+      <c r="E10" s="9">
+        <v>79297</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>201945</v>
+      </c>
+      <c r="E11" s="9">
+        <v>83178</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>461214</v>
+      </c>
+      <c r="E12" s="9">
+        <v>86688</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>432326</v>
-      </c>
-      <c r="F10" s="7">
-        <v>79297</v>
-      </c>
-      <c r="H10">
-        <v>4872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>201945</v>
-      </c>
-      <c r="F11" s="7">
-        <v>83178</v>
-      </c>
-      <c r="H11">
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D13" s="7">
+        <v>407339</v>
+      </c>
+      <c r="E13" s="9">
+        <v>88286</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>376263</v>
+      </c>
+      <c r="E14" s="9">
+        <v>92698</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>461214</v>
-      </c>
-      <c r="F12" s="7">
-        <v>86688</v>
-      </c>
-      <c r="H12">
-        <v>6066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>407339</v>
-      </c>
-      <c r="F13" s="7">
-        <v>88286</v>
-      </c>
-      <c r="H13">
-        <v>4604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>376263</v>
-      </c>
-      <c r="F14" s="7">
-        <v>92698</v>
-      </c>
-      <c r="H14">
-        <v>5195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="7">
         <v>128691</v>
       </c>
-      <c r="F15" s="7">
+      <c r="E15" s="9">
         <v>67175</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="9">
         <v>4956</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
         <v>149134</v>
       </c>
-      <c r="F16" s="7">
+      <c r="E16" s="9">
         <v>87513</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="9">
         <v>5168</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
         <v>440462</v>
       </c>
-      <c r="F17" s="7">
+      <c r="E17" s="9">
         <v>81912</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="9">
         <v>4842</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
         <v>137925</v>
       </c>
-      <c r="F18" s="7">
+      <c r="E18" s="9">
         <v>104528</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="9">
         <v>5673</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
         <v>177789</v>
       </c>
-      <c r="F19" s="7">
+      <c r="E19" s="9">
         <v>103757</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="9">
         <v>5144</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7">
         <v>244913</v>
       </c>
-      <c r="F20" s="7">
+      <c r="E20" s="9">
         <v>89974</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="9">
         <v>5062</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>130422</v>
+      </c>
+      <c r="E21" s="9">
+        <v>15789</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>130422</v>
-      </c>
-      <c r="F21" s="7">
-        <v>15789</v>
-      </c>
-      <c r="H21">
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="9">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8">
         <v>421253</v>
       </c>
-      <c r="F23" s="7">
+      <c r="E23" s="8">
         <v>111416</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="8">
         <v>6705</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="9">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8">
         <v>316390</v>
       </c>
-      <c r="F24" s="7">
+      <c r="E24" s="8">
         <v>102870</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="8">
         <v>8416</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8">
+        <v>370584</v>
+      </c>
+      <c r="E25" s="8">
+        <v>109975</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="9">
-        <v>370584</v>
-      </c>
-      <c r="F25" s="7">
-        <v>109975</v>
-      </c>
-      <c r="H25">
-        <v>8581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
+        <v>467459</v>
+      </c>
+      <c r="E27" s="3">
+        <v>97692</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="8">
-        <v>467459</v>
-      </c>
-      <c r="F27" s="7">
-        <v>97692</v>
-      </c>
-      <c r="H27">
-        <v>7023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="8">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3">
         <v>397331</v>
       </c>
-      <c r="F28" s="7">
+      <c r="E28" s="3">
         <v>109405</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="3">
         <v>4698</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="8">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3">
         <v>432836</v>
       </c>
-      <c r="F29" s="7">
+      <c r="E29" s="3">
         <v>107434</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="3">
         <v>4505</v>
       </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1277,47 +1201,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852717D1-0BFC-4177-BE7C-94418F86C38F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="37" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="C2" s="2">
+        <v>137.20599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7">
-        <v>137.20599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>0.94</v>
       </c>
     </row>
@@ -1341,132 +1265,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1476,26 +1400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EAC3B332A2FD04E918F9FD72E2B30AC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5791f7a1e5ce60c682c7fd472657cfed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aed4346-8012-4133-9837-e496d0f5c99a" xmlns:ns3="15179a99-4cef-4bac-ab20-a4c03d7ec5db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4db72e02b896ab7bb9242ff846c9720" ns2:_="" ns3:_="">
     <xsd:import namespace="2aed4346-8012-4133-9837-e496d0f5c99a"/>
@@ -1712,32 +1616,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACC6A9E-AFDB-4CBD-9896-E5C36F677490}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFCDE67-DA47-4FB4-981D-4C7D3281006C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCCA327-4613-4AB7-899B-CACED6736245}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1754,4 +1653,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFCDE67-DA47-4FB4-981D-4C7D3281006C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACC6A9E-AFDB-4CBD-9896-E5C36F677490}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>